--- a/biology/Médecine/Hugo_Rühle/Hugo_Rühle.xlsx
+++ b/biology/Médecine/Hugo_Rühle/Hugo_Rühle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Hugo_R%C3%BChle</t>
+          <t>Hugo_Rühle</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hugo Ernst Heinrich Rühle (12 septembre 1824 - 11 juillet 1888) est un médecin allemand né à Liegnitz. 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Hugo_R%C3%BChle</t>
+          <t>Hugo_Rühle</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">De 1842 à 1848, il étudie la médecine à Berlin, où il subit l’influence de Rudolf Virchow (1821-1902), Benno Reinhardt (de) (1819-1852) et Ludwig Traube (1818-1876). Après l’obtention de son diplôme, il travaille à l'hôpital Allerheiligen, à Breslau, et en 1852, il reste à Breslau en tant qu’assistant à la clinique médicale de Friedrich Theodor von Frerichs (1819-1885). En 1859, il devient directeur de la polyclinique et professeur à l’université de Breslau.
 De 1860 à 1864, il est directeur du département de médecine clinique à l’université de Greifswald, puis occupe le même poste à l’université de Bonn. Deux de ses assistants les plus connus étaient le médecin Hugo von Ziemssen (de) (1829-1902) à Greifswald et le physiologiste Nathan Zuntz (de) (1847-1920) à Bonn.
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Hugo_R%C3%BChle</t>
+          <t>Hugo_Rühle</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Sélection de publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Die Kehlkopf-Krankheiten (Maladies du larynx), 1861.
 Über den gegenwärtigen Stand der Tuberkulosenfrage (Sur l’état actuel de la tuberculose), 1871.
